--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -302,9 +302,6 @@
     <t>Seminar Systemarchitekturen</t>
   </si>
   <si>
-    <t>Sminar Text Analytics</t>
-  </si>
-  <si>
     <t>Systems Engineering and Software Engineering</t>
   </si>
   <si>
@@ -368,21 +365,12 @@
     <t>Algorithmen:Theorie:Praxis</t>
   </si>
   <si>
-    <t>Deep Learning:neuronale Netze:Datenverarbeitung:KI:Machine Learning:Praxis</t>
-  </si>
-  <si>
-    <t>Quantencomputing:Optimierung:Physik:Technik:lineare Algebra</t>
-  </si>
-  <si>
     <t>Algorithmen:Optimierung:Spieltheorie:Theorie</t>
   </si>
   <si>
     <t>Funktionale Programmierung:Haskell:Praxis</t>
   </si>
   <si>
-    <t>KI:ML:Deep Learning:neuronale Netze:Praxis</t>
-  </si>
-  <si>
     <t>Optimierung:Physik:Technik</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>Optimierung:Physik:Hochleistungsrechner:Netzwerke:Technik</t>
   </si>
   <si>
-    <t>Machine Learning:KI:neuronale Netze:Data Science:Praxis</t>
-  </si>
-  <si>
     <t>Data Science:NLP:Machine Learning:KI:Praxis</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>Programmierung:Grafik:Optimierung:Netzwerke:Hochleistungsrechner:Praxis</t>
   </si>
   <si>
-    <t>Forschung:Programmierung:Datenverarbeitung:KI:Machine Learning:neuronale Netze:Praxis</t>
-  </si>
-  <si>
     <t>VR:Datenbanken:NLP:Programmierung:Unity3D:Grafik:3D-Modellierung:VR:Machine Learning:KI:Deep Learning:Datenverarbeitung:Praxis</t>
   </si>
   <si>
@@ -440,9 +422,6 @@
     <t>Wissenschaftliches Arbeiten:Praxis</t>
   </si>
   <si>
-    <t>Wissenschaftliches Arbeiten:KI:Machine Learning:neuronale Netze:Deep Learning:Praxis</t>
-  </si>
-  <si>
     <t>Wissenschaftliches Arbeiten:Algorithmen:Komplexitaetstheorie:Theorie</t>
   </si>
   <si>
@@ -483,6 +462,27 @@
   </si>
   <si>
     <t>Kaschube:Triesch</t>
+  </si>
+  <si>
+    <t>Quantencomputing:Optimierung:Physik:Technik:Lineare Algebra</t>
+  </si>
+  <si>
+    <t>Deep Learning:Neuronale Netze:Datenverarbeitung:KI:Machine Learning:Praxis</t>
+  </si>
+  <si>
+    <t>KI:ML:Deep Learning:Neuronale Netze:Praxis</t>
+  </si>
+  <si>
+    <t>Machine Learning:KI:Neuronale Netze:Data Science:Praxis</t>
+  </si>
+  <si>
+    <t>Forschung:Programmierung:Datenverarbeitung:KI:Machine Learning:Neuronale Netze:Praxis</t>
+  </si>
+  <si>
+    <t>Wissenschaftliches Arbeiten:KI:Machine Learning:Neuronale Netze:Deep Learning:Praxis</t>
+  </si>
+  <si>
+    <t>Seminar Text Analytics</t>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -991,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1071,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1122,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1182,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -1282,10 +1282,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -1382,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
@@ -1422,16 +1422,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -1451,7 +1451,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -1471,7 +1471,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
@@ -1542,10 +1542,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
         <v>42</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -1611,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,16 +1682,16 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
